--- a/testBed/TestScenarios.xlsx
+++ b/testBed/TestScenarios.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pratilipib\Desktop\Documents\Personal\CodingsAndPractices\playWrightProject\testBed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Putul\Desktop\Pratilipi's\playWrightProject\testBed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB52E3F-38C8-452F-8FB3-9B10A01124B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1CBC54-134E-4A04-B607-7FDAB67C9008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Test case Objective</t>
   </si>
@@ -47,10 +47,25 @@
     <t>loginValidation</t>
   </si>
   <si>
-    <t>Valdiate the user is able to login and logout</t>
-  </si>
-  <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>Valdiate the user is able to login sucessfully for all the users given in test data sheet.</t>
+  </si>
+  <si>
+    <t>logOutValidation</t>
+  </si>
+  <si>
+    <t>Valdiate the user is able to logout when logged  sucessfully for all the users given in test data sheet.</t>
+  </si>
+  <si>
+    <t>menuItemValidation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate that the menu item option has 4 values - All items, About, Logout and Reset App State. </t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -371,15 +386,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="26.28515625" customWidth="1"/>
     <col min="4" max="6" width="28" customWidth="1"/>
@@ -404,17 +419,39 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C3" s="1"/>
+    <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
